--- a/Упражнения/10.PVT.xlsx
+++ b/Упражнения/10.PVT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\Упражнения\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C87C354-C0F1-4257-B663-58455E807FE2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FAF1AB-349B-41C3-B278-431CA6F92AD4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12103" tabRatio="591" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65674,7 +65674,7 @@
   <dimension ref="A1:K118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.45" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
